--- a/Excel/brad2.xlsx
+++ b/Excel/brad2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11101"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\VirtualBox VMs\SciViews Box 2020\shared\projects\TP-Bioch-BAB2-Q1\Dataframes Excel (.xlsx)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emelinederycke/VirtualBox VMs/SciViews Box 2020/shared/projects/TP-Bioch-BAB2-Q1/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C645458D-AFEF-4CDB-ABC6-456A8E8C0C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB0EBA9-A3CD-1D40-8DDF-63E0CA08A09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{0A7EE9F2-C636-4E02-8BDC-BCFC64912D2A}"/>
+    <workbookView xWindow="7200" yWindow="1220" windowWidth="21600" windowHeight="11380" xr2:uid="{0A7EE9F2-C636-4E02-8BDC-BCFC64912D2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -291,6 +291,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -610,12 +613,12 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -639,7 +642,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -653,11 +656,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
       <c r="G2" s="10"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -665,11 +670,13 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="10">
+        <v>2.7E-2</v>
+      </c>
       <c r="G3" s="11"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -683,11 +690,13 @@
         <v>4</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="14">
+        <v>1.046</v>
+      </c>
       <c r="G4" s="14"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -695,11 +704,13 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="10">
+        <v>1.085</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -713,11 +724,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14">
+        <v>0.61</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -725,11 +738,13 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10">
+        <v>0.53200000000000003</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -743,11 +758,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14">
+        <v>0.124</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -755,11 +772,13 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10">
+        <v>8.4000000000000005E-2</v>
+      </c>
       <c r="G9" s="11"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -773,11 +792,13 @@
         <v>4</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>5.8000000000000003E-2</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -785,52 +806,54 @@
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="16">
+        <v>0.05</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H15" s="1"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="1"/>
     </row>
   </sheetData>

--- a/Excel/brad2.xlsx
+++ b/Excel/brad2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emelinederycke/VirtualBox VMs/SciViews Box 2020/shared/projects/TP-Bioch-BAB2-Q1/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\VirtualBox VMs\SciViews Box 2020\shared\projects\TP-Bioch-BAB2-Q1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB0EBA9-A3CD-1D40-8DDF-63E0CA08A09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D1044E-433C-4B27-9641-27EC9DB1BE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1220" windowWidth="21600" windowHeight="11380" xr2:uid="{0A7EE9F2-C636-4E02-8BDC-BCFC64912D2A}"/>
+    <workbookView xWindow="20115" yWindow="6210" windowWidth="18480" windowHeight="10545" xr2:uid="{0A7EE9F2-C636-4E02-8BDC-BCFC64912D2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Tube n°</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Blanc</t>
   </si>
@@ -68,29 +65,35 @@
     <t>1000X’</t>
   </si>
   <si>
-    <t>Blanc d’œuf dilué (µl)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaCl 0,9% (µl) </t>
-  </si>
-  <si>
-    <t>Colorant (ml)</t>
-  </si>
-  <si>
-    <t>D.O. à 595 nm</t>
-  </si>
-  <si>
-    <t>D.O. à 595 nm - blanc</t>
-  </si>
-  <si>
-    <t>Concentration protéique (µg)</t>
+    <t>tube</t>
+  </si>
+  <si>
+    <t>bdo</t>
+  </si>
+  <si>
+    <t>nacl</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>DO_moy</t>
+  </si>
+  <si>
+    <t>mprot</t>
+  </si>
+  <si>
+    <t>cprot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,12 +109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6.5"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -122,12 +119,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -254,47 +245,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,251 +598,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3031EAAE-7EB9-41C1-809A-7EF7AEB2F485}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
         <v>100</v>
       </c>
-      <c r="D2" s="9">
-        <v>4</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10">
-        <v>0</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10">
-        <v>2.7E-2</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="9">
+        <v>100</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="G4" s="8">
+        <v>145</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.45</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B5" s="7">
         <v>100</v>
       </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>4</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14">
-        <v>1.046</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10">
-        <v>1.085</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="G5" s="13">
+        <v>145</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1.45</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>100</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="G6" s="8">
+        <v>117</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B7" s="7">
         <v>100</v>
       </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>4</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14">
-        <v>0.61</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="G7" s="13">
+        <v>117</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="9">
+        <v>100</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G8" s="8">
+        <v>50</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B9" s="7">
         <v>100</v>
       </c>
-      <c r="C8" s="13">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <v>4</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14">
-        <v>0.124</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.317</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G9" s="13">
+        <v>50</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="9">
+        <v>100</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <v>31</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B11" s="11">
         <v>100</v>
       </c>
-      <c r="C10" s="13">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13">
-        <v>4</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="16">
-        <v>0.05</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.189</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G11" s="13">
+        <v>31</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H26" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/brad2.xlsx
+++ b/Excel/brad2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\VirtualBox VMs\SciViews Box 2020\shared\projects\TP-Bioch-BAB2-Q1\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D1044E-433C-4B27-9641-27EC9DB1BE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BECC491-5EE0-49DD-848C-3334454AEC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20115" yWindow="6210" windowWidth="18480" windowHeight="10545" xr2:uid="{0A7EE9F2-C636-4E02-8BDC-BCFC64912D2A}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
